--- a/biology/Zoologie/Écureuil_de_Deppe/Écureuil_de_Deppe.xlsx
+++ b/biology/Zoologie/Écureuil_de_Deppe/Écureuil_de_Deppe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cureuil_de_Deppe</t>
+          <t>Écureuil_de_Deppe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sciurus deppei
-Sciurus deppei, appelé écureuil de Deppe ou écureuil des pins[1], est une espèce de rongeurs de la famille des Sciuridae. Son aire de répartition comprend Belize, Costa Rica, Guatemala, Honduras, Mexique, Nicaragua.
+Sciurus deppei, appelé écureuil de Deppe ou écureuil des pins, est une espèce de rongeurs de la famille des Sciuridae. Son aire de répartition comprend Belize, Costa Rica, Guatemala, Honduras, Mexique, Nicaragua.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cureuil_de_Deppe</t>
+          <t>Écureuil_de_Deppe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrit de graines, de fruits et de feuillage. Il mange notamment les fruits du noix-pain (Brosimum alicastrum), du sapotillier (Manilkara zapota) , Cymbopetalum baillonii, Pinus caribea et Poulsenia armata[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit de graines, de fruits et de feuillage. Il mange notamment les fruits du noix-pain (Brosimum alicastrum), du sapotillier (Manilkara zapota) , Cymbopetalum baillonii, Pinus caribea et Poulsenia armata. 
 </t>
         </is>
       </c>
